--- a/Bot-AxeDevTools/insumo-bot-axe-backup.xlsx
+++ b/Bot-AxeDevTools/insumo-bot-axe-backup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G260"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/turismo/5-circuito-tere-fri</t>
+          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/9_57_Programa-Nacional-de-Prevencao-a-Corrupcao-PNPC.html</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-01-23 17:25:04</t>
+          <t>2025-01-25 19:08:24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -515,12 +515,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=6</t>
+          <t>https://servicoonline.novafriburgo.rj.gov.br/portal/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-01-23 17:25:10</t>
+          <t>2025-01-25 19:08:29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -552,12 +552,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/noticiasView/3079_noticia.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretarias/</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-01-23 17:25:15</t>
+          <t>2025-01-25 19:08:32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/mapa-do-site/</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-01-23 17:25:20</t>
+          <t>2025-01-25 19:08:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -626,12 +626,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://transparencia.novafriburgo.rj.gov.br/portalTransparencia/</t>
+          <t>https://www.novafriburgo.rj.gov.br/turismo/4-amparo-4-distrito</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-01-23 17:25:22</t>
+          <t>2025-01-25 19:08:48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,12 +663,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/13_Ordem-e-Mobilidade-Urbana.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-01-23 17:25:28</t>
+          <t>2025-01-25 19:08:54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/pagina/122_LGPD-Politica-de-Privacidade.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/pagina/143_Clube-de-Descontos-para-Servidores-Publicos-Municipais.html</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-01-23 17:25:33</t>
+          <t>2025-01-25 19:09:19</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/pagina/88_Planos.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/pagina/1_A-Cidade.html</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-01-23 17:25:36</t>
+          <t>2025-01-25 19:09:22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4663</t>
+          <t>https://www.novafriburgo.rj.gov.br/noticias/</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-01-23 17:25:39</t>
+          <t>2025-01-25 19:09:25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4662</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-01-23 17:25:45</t>
+          <t>2025-01-25 19:09:33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/videos</t>
+          <t>https://desenvolve.novafriburgo.rj.gov.br/financas/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-01-23 17:25:49</t>
+          <t>2025-01-25 19:09:37</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -885,12 +885,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4666</t>
+          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4664</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-01-23 17:25:53</t>
+          <t>2025-01-25 19:09:40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -922,12 +922,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/turismo/10-cadastro-para-acesso-de-transporte-coletivo-turistico</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-01-23 17:25:57</t>
+          <t>2025-01-25 19:09:44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -959,12 +959,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/turismo/calendario-de-eventos</t>
+          <t>https://www.novafriburgo.rj.gov.br/turismo/lumiar-e-sao-pedro-da-serra</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-01-23 17:26:02</t>
+          <t>2025-01-25 19:09:48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4668</t>
+          <t>https://www.novafriburgo.rj.gov.br/noticias</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-01-23 17:26:06</t>
+          <t>2025-01-25 19:09:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1033,12 +1033,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/pagina/143_CLUBE-DE-DESCONTOS-PARA-OS-SERVIDORES-PUBLICOS.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/pagina/131_Cartilha-de-orientacao-Assedio-moral-e-sexual-Previna-se.html</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-01-23 17:26:10</t>
+          <t>2025-01-25 19:10:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://novafriburgo.rj.gov.br:2096/</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-01-23 17:26:14</t>
+          <t>2025-01-25 19:10:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1107,12 +1107,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/licitacaoView/?id=1461</t>
+          <t>https://www.novafriburgo.rj.gov.br/turismo/10-cadastro-para-acesso-de-transporte-coletivo-turistico</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-01-23 17:26:17</t>
+          <t>2025-01-25 19:10:07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=13</t>
+          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4670</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-01-23 17:26:22</t>
+          <t>2025-01-25 19:10:14</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1181,12 +1181,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4671</t>
+          <t>https://www.novafriburgo.rj.gov.br/licitacaoView/?id=1495</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-01-23 17:26:26</t>
+          <t>2025-01-25 19:10:48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1218,12 +1218,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=11</t>
+          <t>https://www.novafriburgo.rj.gov.br/licitacaoView/?id=1485</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-01-23 17:26:30</t>
+          <t>2025-01-25 19:12:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/licitacaoView/?id=1468</t>
+          <t>https://www.novafriburgo.rj.gov.br/pagina/122_LGPD-Politica-de-Privacidade.html</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-01-23 17:26:35</t>
+          <t>2025-01-25 19:12:40</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1292,12 +1292,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/turismo/cadastro-para-acesso-de-grupos-ao-pico-da-caledonia</t>
+          <t>https://www.novafriburgo.rj.gov.br/turismo/6-eventos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-01-23 17:26:38</t>
+          <t>2025-01-25 19:12:43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/faq</t>
+          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4672</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-01-23 17:26:42</t>
+          <t>2025-01-25 19:12:50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.novafriburgo.rj.gov.br/licitacao/</t>
+          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/4_Ciencia-e-Tecnologia.html</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-01-23 17:26:46</t>
+          <t>2025-01-25 19:12:56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1403,12 +1403,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/pagina/131_Cartilha-de-orientacao-Assedio-moral-e-sexual-Previna-se.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=39</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-01-23 17:26:58</t>
+          <t>2025-01-25 19:13:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://desenvolve.novafriburgo.rj.gov.br/financas/</t>
+          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/20_Procuradoria-Geral-do-Municipio.html</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-01-23 17:27:02</t>
+          <t>2025-01-25 19:13:04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1477,12 +1477,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=39</t>
+          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4666</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-01-23 17:27:05</t>
+          <t>2025-01-25 19:13:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1514,12 +1514,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/localizacao/</t>
+          <t>https://novafriburgo.rj.gov.br/pagina/176_Resultado-PMGIRS.html</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-01-23 17:27:10</t>
+          <t>2025-01-25 19:13:14</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/agenda_eventos/</t>
+          <t>http://novafriburgo.rj.gov.br/gabinete/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-01-23 17:27:14</t>
+          <t>2025-01-25 19:13:28</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1588,12 +1588,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/pagina/9_Convenio-Sesc-Rio.html</t>
+          <t>https://desenvolve.novafriburgo.rj.gov.br/</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-01-23 17:27:18</t>
+          <t>2025-01-25 19:13:32</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1625,12 +1625,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/licitacao/</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=19</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-01-23 17:27:21</t>
+          <t>2025-01-25 19:13:36</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1662,12 +1662,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/pagina/18_Concursos-Publicos.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4662</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-01-23 17:27:34</t>
+          <t>2025-01-25 19:13:40</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://novafriburgo.rj.gov.br/paginas-centralizadas/10_Meio-Ambiente.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=27</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-01-23 17:27:37</t>
+          <t>2025-01-25 19:13:46</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1736,12 +1736,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/licitacaoView/?id=1495</t>
+          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4667</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-01-23 17:27:42</t>
+          <t>2025-01-25 19:13:50</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1773,12 +1773,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://servicoonline.novafriburgo.rj.gov.br/portal/</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=38</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-01-23 17:27:46</t>
+          <t>2025-01-25 19:13:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://desenvolve.novafriburgo.rj.gov.br/</t>
+          <t>https://www.novafriburgo.rj.gov.br/videos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-01-23 17:27:48</t>
+          <t>2025-01-25 19:13:59</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://novafriburgo.rj.gov.br/pagina/176_Resultado-PMGIRS.html</t>
+          <t>https://novafriburgo.rj.gov.br:2096/</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-01-23 17:27:53</t>
+          <t>2025-01-25 19:14:02</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1884,12 +1884,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretarias/</t>
+          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4669</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-01-23 17:27:57</t>
+          <t>2025-01-25 19:14:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1921,12 +1921,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://intranet.novafriburgo.rj.gov.br/</t>
+          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/9_Controladoria-Geral.html</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-01-23 17:28:01</t>
+          <t>2025-01-25 19:14:11</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1958,12 +1958,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=21</t>
+          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4668</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-01-23 17:28:06</t>
+          <t>2025-01-25 19:14:15</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1995,12 +1995,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=36</t>
+          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/11_Cultura.html</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-01-23 17:28:10</t>
+          <t>2025-01-25 19:14:19</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2032,12 +2032,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/galeria-fotos</t>
+          <t>https://www.novafriburgo.rj.gov.br/turismo/</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-01-23 17:28:14</t>
+          <t>2025-01-25 19:14:22</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=14</t>
+          <t>https://www.novafriburgo.rj.gov.br/mapa-do-site/</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-01-23 17:28:17</t>
+          <t>2025-01-25 19:14:29</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/turismo/conheca-nova-friburgo</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=36</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-01-23 17:28:26</t>
+          <t>2025-01-25 19:14:31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-01-23 17:28:31</t>
+          <t>2025-01-25 19:14:35</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2180,12 +2180,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=24</t>
+          <t>https://www.novafriburgo.rj.gov.br/pagina/9_Convenio-Sesc-Rio.html</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-01-23 17:28:36</t>
+          <t>2025-01-25 19:14:39</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2217,12 +2217,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/faq/</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretarias</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-01-23 17:28:40</t>
+          <t>2025-01-25 19:14:42</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/9_Controladoria-Geral.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/7_Atendimento-ao-Cidadao.html</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-01-23 17:28:43</t>
+          <t>2025-01-25 19:14:46</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=23</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=33</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-01-23 17:28:47</t>
+          <t>2025-01-25 19:14:50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/noticias/</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=20</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-01-23 17:28:51</t>
+          <t>2025-01-25 19:14:54</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=40</t>
+          <t>https://www.novafriburgo.rj.gov.br/pagina/143_CLUBE-DE-DESCONTOS-PARA-OS-SERVIDORES-PUBLICOS.html</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-01-23 17:28:59</t>
+          <t>2025-01-25 19:14:58</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-01-23 17:29:03</t>
+          <t>2025-01-25 19:15:01</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2439,12 +2439,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/7_Atendimento-ao-Cidadao.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/turismo/cadastro-para-acesso-de-grupos-ao-pico-da-caledonia</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-01-23 17:29:07</t>
+          <t>2025-01-25 19:15:06</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/turismo/lumiar-e-sao-pedro-da-serra</t>
+          <t>https://www.novafriburgo.rj.gov.br/licitacao/</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-01-23 17:29:11</t>
+          <t>2025-01-25 19:15:11</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2513,12 +2513,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/contato/</t>
+          <t>https://www.novafriburgo.rj.gov.br/faq</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-01-23 17:29:17</t>
+          <t>2025-01-25 19:15:24</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2550,12 +2550,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/11_Cultura.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=34</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-01-23 17:29:21</t>
+          <t>2025-01-25 19:15:29</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2587,12 +2587,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/turismo/4-amparo-4-distrito</t>
+          <t>https://www.novafriburgo.rj.gov.br/licitacaoView/?id=1493</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-01-23 17:29:24</t>
+          <t>2025-01-25 19:15:33</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/turismo/6-eventos</t>
+          <t>http://www.novafriburgo.rj.gov.br/licitacao/</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-01-23 17:29:29</t>
+          <t>2025-01-25 19:15:37</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2661,12 +2661,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=41</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=24</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-01-23 17:29:34</t>
+          <t>2025-01-25 19:15:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2698,12 +2698,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=33</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=28</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-01-23 17:29:38</t>
+          <t>2025-01-25 19:15:55</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2735,12 +2735,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4661</t>
+          <t>http://transparencia.novafriburgo.rj.gov.br/portalTransparencia/</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-01-23 17:29:42</t>
+          <t>2025-01-25 19:15:59</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2772,12 +2772,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4664</t>
+          <t>https://intranet.novafriburgo.rj.gov.br/</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-01-23 17:29:46</t>
+          <t>2025-01-25 19:16:11</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/4_Ciencia-e-Tecnologia.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=7</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-01-23 17:29:51</t>
+          <t>2025-01-25 19:16:15</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=17</t>
+          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4661</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-01-23 17:29:54</t>
+          <t>2025-01-25 19:16:20</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/licitacaoView/?id=1485</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=22</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-01-23 17:29:58</t>
+          <t>2025-01-25 19:16:27</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2920,12 +2920,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=38</t>
+          <t>https://novafriburgo.rj.gov.br/paginas-centralizadas/10_Meio-Ambiente.html</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-01-23 17:30:02</t>
+          <t>2025-01-25 19:16:31</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2957,12 +2957,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4667</t>
+          <t>https://www.novafriburgo.rj.gov.br/licitacaoView/?id=1461</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-01-23 17:30:06</t>
+          <t>2025-01-25 19:16:34</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2994,12 +2994,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=25</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=14</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-01-23 17:30:10</t>
+          <t>2025-01-25 19:16:38</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3031,12 +3031,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/localizacao</t>
+          <t>https://www.novafriburgo.rj.gov.br/noticiasView/3079_noticia.html</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-01-23 17:30:14</t>
+          <t>2025-01-25 19:16:41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/gabinete</t>
+          <t>https://www.novafriburgo.rj.gov.br/licitacaoView/?id=1486</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-01-23 17:30:18</t>
+          <t>2025-01-25 19:16:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3105,12 +3105,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=8</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-01-23 17:30:22</t>
+          <t>2025-01-25 19:16:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3142,12 +3142,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/pagina/1_A-Cidade.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=40</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-01-23 17:30:38</t>
+          <t>2025-01-25 19:16:53</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3179,12 +3179,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/licitacaoView/?id=1493</t>
+          <t>https://www.novafriburgo.rj.gov.br/turismo/5-circuito-tere-fri</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-01-23 17:30:41</t>
+          <t>2025-01-25 19:16:57</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3216,12 +3216,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4670</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=21</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-01-23 17:30:45</t>
+          <t>2025-01-25 19:17:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3253,12 +3253,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretarias</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-01-23 17:30:52</t>
+          <t>2025-01-25 19:17:09</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3290,12 +3290,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=8</t>
+          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/10_Meio-Ambiente.html</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-01-23 17:30:57</t>
+          <t>2025-01-25 19:17:12</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3327,12 +3327,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=34</t>
+          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4671</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-01-23 17:31:01</t>
+          <t>2025-01-25 19:17:16</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3364,12 +3364,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=20</t>
+          <t>https://www.novafriburgo.rj.gov.br/turismo/calendario-de-eventos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-01-23 17:31:05</t>
+          <t>2025-01-25 19:17:21</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3401,12 +3401,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=19</t>
+          <t>https://www.novafriburgo.rj.gov.br/gabinete</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-01-23 17:31:09</t>
+          <t>2025-01-25 19:17:26</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3438,12 +3438,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/turismo/</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=13</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-01-23 17:31:14</t>
+          <t>2025-01-25 19:17:29</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3475,12 +3475,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4672</t>
+          <t>https://www.novafriburgo.rj.gov.br/localizacao/</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-01-23 17:31:22</t>
+          <t>2025-01-25 19:17:33</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=27</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-01-23 17:31:27</t>
+          <t>2025-01-25 19:17:36</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/20_Procuradoria-Geral-do-Municipio.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=11</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-01-23 17:31:31</t>
+          <t>2025-01-25 19:17:40</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3586,12 +3586,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://novafriburgo.rj.gov.br/gabinete/</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=41</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-01-23 17:31:34</t>
+          <t>2025-01-25 19:17:44</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3623,12 +3623,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=22</t>
+          <t>https://www.novafriburgo.rj.gov.br/pagina/18_Concursos-Publicos.html</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-01-23 17:31:38</t>
+          <t>2025-01-25 19:17:48</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3660,12 +3660,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=37</t>
+          <t>https://www.novafriburgo.rj.gov.br/localizacao</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-01-23 17:31:42</t>
+          <t>2025-01-25 19:17:51</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=16</t>
+          <t>https://www.novafriburgo.rj.gov.br/contato/</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-01-23 17:31:46</t>
+          <t>2025-01-25 19:17:55</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3734,12 +3734,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=28</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=23</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-01-23 17:31:50</t>
+          <t>2025-01-25 19:17:58</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3771,12 +3771,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/9_57_Programa-Nacional-de-Prevencao-a-Corrupcao-PNPC.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/turismo/roteiros</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-01-23 17:31:54</t>
+          <t>2025-01-25 19:18:02</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3808,12 +3808,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/10_Meio-Ambiente.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/faq/</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2025-01-23 17:31:58</t>
+          <t>2025-01-25 19:18:13</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=7</t>
+          <t>https://www.novafriburgo.rj.gov.br/pagina/88_Planos.html</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-01-23 17:32:02</t>
+          <t>2025-01-25 19:18:16</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3882,12 +3882,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=5</t>
+          <t>https://www.novafriburgo.rj.gov.br/galeria-fotos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2025-01-23 17:32:06</t>
+          <t>2025-01-25 19:18:19</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3919,12 +3919,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/licitacaoView/?id=1486</t>
+          <t>https://www.novafriburgo.rj.gov.br/agenda_eventos/</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2025-01-23 17:32:10</t>
+          <t>2025-01-25 19:18:22</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=3</t>
+          <t>https://www.novafriburgo.rj.gov.br/turismo/7-cadastur</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2025-01-23 17:32:14</t>
+          <t>2025-01-25 19:18:26</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3993,12 +3993,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/turismo/7-cadastur</t>
+          <t>https://www.novafriburgo.rj.gov.br/secretariaView/?id=37</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025-01-23 17:32:18</t>
+          <t>2025-01-25 19:18:38</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4030,12 +4030,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/pagina/143_Clube-de-Descontos-para-Servidores-Publicos-Municipais.html</t>
+          <t>https://www.novafriburgo.rj.gov.br/licitacaoView/?id=1468</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2025-01-23 17:32:29</t>
+          <t>2025-01-25 19:18:42</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4067,12 +4067,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4669</t>
+          <t>https://www.novafriburgo.rj.gov.br/noticiasView/?id=4663</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2025-01-23 17:32:32</t>
+          <t>2025-01-25 19:18:45</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.novafriburgo.rj.gov.br/noticias</t>
+          <t>https://www.novafriburgo.rj.gov.br/paginas-centralizadas/13_Ordem-e-Mobilidade-Urbana.html</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2025-01-23 16:22:55</t>
+          <t>2025-01-25 19:07:58</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2025-01-23 17:32:37</t>
+          <t>2025-01-25 19:18:50</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4136,29 +4136,25 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=noticias.php</t>
+          <t>https://www.teresopolis.rj.gov.br/redemulher/</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:32:41</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4166,36 +4162,32 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=exibir_noticias.php&amp;id_noticia=809</t>
+          <t>https://www.teresopolis.rj.gov.br/mapa-do-site/</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:32:51</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4203,36 +4195,32 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=contato.php</t>
+          <t>https://teresopolis.rj.gov.br/portal-do-trabalhador/</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:32:54</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4240,36 +4228,32 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=licitacoes.php</t>
+          <t>https://teresopolis.rj.gov.br/inovatere/</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:32:57</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4277,36 +4261,32 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=exibir_noticias.php&amp;id_noticia=813</t>
+          <t>https://www.teresopolis.rj.gov.br/adote-um-amor/</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:34:14</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4314,36 +4294,32 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/e-sic</t>
+          <t>https://atos.teresopolis.rj.gov.br/paginas/publico</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:34:23</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4351,36 +4327,32 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=exibir_noticias.php&amp;id_noticia=812</t>
+          <t>https://www.teresopolis.rj.gov.br/catalogo-cultural</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:34:26</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4388,36 +4360,32 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.bomjardim.rj.gov.br/e-sic/?pagina=exibir_arquivos.php&amp;categoria=Recursos%20Humanos</t>
+          <t>https://www.teresopolis.rj.gov.br/feirarte-virtual/</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:34:30</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4425,36 +4393,32 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=eventos.php</t>
+          <t>https://teresopolis.rj.gov.br/estrutura/saude/unidades-de-saude/</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:34:33</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4462,36 +4426,32 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=secretarias.php</t>
+          <t>https://www.teresopolis.rj.gov.br/portal-do-trabalhador/vagas-de-emprego/</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:34:36</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4499,36 +4459,32 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.bomjardim.rj.gov.br/diariooficial/</t>
+          <t>https://teresopolis.rj.gov.br/tereprev/</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:34:39</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4536,36 +4492,32 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=uteis.php</t>
+          <t>https://turismo.teresopolis.rj.gov.br/</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:34:46</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4573,36 +4525,32 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=exibir_noticias.php&amp;id_noticia=811</t>
+          <t>https://www.teresopolis.rj.gov.br/canais-de-atendimento/</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:34:49</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4610,36 +4558,32 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/servidor/</t>
+          <t>https://teresopolis.rj.gov.br/servicos/noticias/</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:34:52</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4647,36 +4591,32 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=paginas_/historia.php</t>
+          <t>http://licitacao.teresopolis.rj.gov.br/</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:34:54</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4684,36 +4624,32 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.camarabomjardim.rj.gov.br/</t>
+          <t>https://atos.teresopolis.rj.gov.br/index.jsf</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:34:57</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4721,36 +4657,32 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=conselhos.php</t>
+          <t>https://www.teresopolis.rj.gov.br/boletim-chuva-2-31-10-2023-19h</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:35:09</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4758,36 +4690,32 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/ouvidoria</t>
+          <t>https://www.teresopolis.rj.gov.br/transparencia/relatorios-da-lei-de-responsabilidade-fiscal/</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:35:11</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4795,36 +4723,32 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/coronavirus</t>
+          <t>https://www.teresopolis.rj.gov.br/atualizacao-defesa-civil-de-teresopolis-22h35</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:35:14</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4832,36 +4756,32 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=inicio.php</t>
+          <t>https://www.teresopolis.rj.gov.br/tereagoratem/</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:35:18</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4869,36 +4789,32 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=paginas_/carteira_de_trabalho.html</t>
+          <t>https://www.teresopolis.rj.gov.br/defesa-civil-de-teresopolis-presente-no-seminario-interno-da-coordenadoria-regional-da-defesa-civil-regional-serrana-i/</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:35:21</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4906,36 +4822,32 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=paginas_/junta_militar.html</t>
+          <t>https://www.teresopolis.rj.gov.br/teregovdigital</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:35:23</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4943,36 +4855,32 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=paginas_/sala_do_empreendedor.php</t>
+          <t>https://teresopolis.rj.gov.br/lgpd/</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:35:26</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -4980,36 +4888,32 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=paginas_/defesa_civil.html</t>
+          <t>https://teresopolis.rj.gov.br/</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:35:29</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5017,36 +4921,32 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=omunicipio.php</t>
+          <t>https://www.teresopolis.rj.gov.br/teregovdigital/</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:35:32</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5054,36 +4954,32 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>http://www.bomjardim.rj.gov.br/?pagina=sebrae.php</t>
+          <t>https://teresopolis.rj.gov.br/cafe-popular/</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:35:35</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5091,36 +4987,32 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=exibir_noticias.php&amp;id_noticia=815</t>
+          <t>https://www.teresopolis.rj.gov.br/tempo-real/clima/</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:35:50</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5128,36 +5020,32 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=exibir_noticias.php&amp;id_noticia=814</t>
+          <t>https://teresopolis.rj.gov.br/temporeal/transito/</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:35:53</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5165,36 +5053,32 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br/?pagina=acessibilidade.php</t>
+          <t>https://www.teresopolis.rj.gov.br/tabela-de-inspecao-sanitaria/</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:35:55</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5202,36 +5086,32 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.bomjardim.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>http://bomjardim.rj.gov.br/notafiscal/</t>
+          <t>https://teresopolis.rj.gov.br/servicos/mapa-do-site/</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:00</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:35:58</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5239,36 +5119,32 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://transparencia.cordeiro.rj.gov.br/unidadeacaosocial.php</t>
+          <t>https://www.teresopolis.rj.gov.br/tabela-do-codigo-tributario-municipal/</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:36:01</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5276,36 +5152,32 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://www.transparencia.cordeiro.rj.gov.br/galeriagestores.php</t>
+          <t>https://www.teresopolis.rj.gov.br/notatere/</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:36:07</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5313,36 +5185,32 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/2024/12/17/</t>
+          <t>https://teresopolis.rj.gov.br/estrutura/desenvolvimento-social/orgaos-do-desenvolvimento-social/</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:36:11</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5350,36 +5218,32 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/lista-de-ramais</t>
+          <t>https://teresopolis.rj.gov.br/cursos/</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:36:16</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5387,36 +5251,32 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/</t>
+          <t>https://www.teresopolis.rj.gov.br/transparencia/diario-oficial/</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:36:21</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5424,36 +5284,32 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://www.transparencia.cordeiro.rj.gov.br/licitacaolista.php?id=1083</t>
+          <t>https://www.teresopolis.rj.gov.br/transparencia/planejamento/</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:36:28</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5461,36 +5317,32 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/legislacao/</t>
+          <t>http://webmail.teresopolis.rj.gov.br/</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:36:32</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5498,36 +5350,32 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/prefeito-e-vice-prefeito</t>
+          <t>https://www.teresopolis.rj.gov.br/transparencia/prestacao-de-contas/</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:36:36</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5535,36 +5383,32 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/category/secretaria-de-turismo/</t>
+          <t>https://www.teresopolis.rj.gov.br/inovatere</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:36:40</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5572,36 +5416,32 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://mail.cordeiro.rj.gov.br/</t>
+          <t>https://www.teresopolis.rj.gov.br/espaco-do-empreendedor/</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:36:45</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5609,36 +5449,32 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/pesquisa/</t>
+          <t>https://teresopolis.rj.gov.br/sobre-o-site/</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:36:47</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5646,36 +5482,32 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://www.transparencia.cordeiro.rj.gov.br/licitacaolista.php?id=1078</t>
+          <t>https://teresopolis.rj.gov.br/canais-de-atendimento/</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:36:51</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5683,36 +5515,32 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://www.transparencia.cordeiro.rj.gov.br/licitacaolista.php?id=1079</t>
+          <t>https://www.teresopolis.rj.gov.br/pre-matricula-para-creches-e-cmeis-e-matricula-para-ensino-fundamental-serao-feitas-na-proxima-semana/</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:36:55</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5720,36 +5548,32 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/portal-transparencia</t>
+          <t>https://educacao.teresopolis.rj.gov.br/</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:36:59</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5757,36 +5581,32 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/secretarias</t>
+          <t>https://www.teresopolis.rj.gov.br/estrutura/</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:37:05</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5794,36 +5614,32 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/category/secretaria-de-agricultura/</t>
+          <t>https://webmail.teresopolis.rj.gov.br/</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:37:10</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5831,36 +5647,32 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://transparencia.cordeiro.rj.gov.br/jornal.php</t>
+          <t>https://conselhos.teresopolis.rj.gov.br/</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:37:14</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5868,36 +5680,32 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://transparencia.cordeiro.rj.gov.br/acoes.php?id=33</t>
+          <t>https://www.teresopolis.rj.gov.br/tempo-real/transporte/</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:37:18</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5905,36 +5713,32 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/adm-portal</t>
+          <t>https://atos.teresopolis.rj.gov.br/acessos/consolida/leicomplem/2022.html</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:37:22</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5942,36 +5746,32 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/noticias</t>
+          <t>https://teresopolis.rj.gov.br/politica-de-acessibilidade/</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:37:26</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -5979,36 +5779,32 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://transparencia.cordeiro.rj.gov.br/contratos.php</t>
+          <t>https://www.teresopolis.rj.gov.br/tempo-real/transito/</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:37:31</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6016,36 +5812,32 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://transparencia.cordeiro.rj.gov.br/unidadecultura.php</t>
+          <t>https://teresopolis.rj.gov.br/perguntas-frequentes/</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:37:36</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6053,36 +5845,32 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://transparencia.cordeiro.rj.gov.br/unidadeeducacao.php</t>
+          <t>https://www.teresopolis.rj.gov.br/estrutura/ciencia-e-tecnologia/conectatere/</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:37:40</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6090,36 +5878,32 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/encontro-da-agricultura-sobre-a-obrigatoriedade-da-nota-fiscal-eletronica-acontece-nesta-quarta-18/</t>
+          <t>https://www.teresopolis.rj.gov.br/festival-sesc-verao-confira-as-alteracoes-no-transito-para-o-evento-na-praca-olimpica-neste-final-de-semana/</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:37:43</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6127,36 +5911,32 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://transparencia.cordeiro.rj.gov.br/pcgs.php</t>
+          <t>https://www.teresopolis.rj.gov.br/novopromaj/rotativo/</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:37:47</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6164,36 +5944,32 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/2024/12/27/</t>
+          <t>https://www.teresopolis.rj.gov.br/servicos/noticias/</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:37:51</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6201,36 +5977,32 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/feira-do-produtor-rural-esta-confirmada-para-este-domingo-22-com-show-de-dj-eliza-lima/</t>
+          <t>https://www.teresopolis.rj.gov.br/lgpd/politica-de-privacidade/</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:37:55</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6238,36 +6010,32 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://transparencia.cordeiro.rj.gov.br/omunicipio.php?=4</t>
+          <t>https://www.teresopolis.rj.gov.br/boletim-da-defesa-civil-de-teresopolis-03-11-23-7h45/</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:37:58</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6275,36 +6043,32 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://www.transparencia.cordeiro.rj.gov.br/publicacoes.php?grupo=&amp;cat=2&amp;Comp=&amp;sec=&amp;Exerc=&amp;Num=&amp;ta=3&amp;Descricao=&amp;dtini=&amp;dtfim=</t>
+          <t>https://www.teresopolis.rj.gov.br/boletim-da-defesa-civil-de-teresopolis-data-01-11a-02-11-2023/</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:38:03</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6312,36 +6076,32 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/category/secretaria-de-educacao/</t>
+          <t>http://teresopolis.rj.gov.br/datatere</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:38:08</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6349,36 +6109,32 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/2024/12/18/</t>
+          <t>https://www.teresopolis.rj.gov.br/boletim-chuva-31-10-2023-16h35</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:38:12</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6386,36 +6142,32 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/secretaria-de-agricultura-recupera-trecho-da-estrada-que-liga-cordeiro-ao-distrito-de-monnerat/</t>
+          <t>https://www.teresopolis.rj.gov.br/transparencia/esic-fisico/</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:38:16</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6423,36 +6175,32 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://www.transparencia.cordeiro.rj.gov.br/licitacaolista.php?id=1086</t>
+          <t>https://teresopolis.rj.gov.br/espaco-do-empreendedor/</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:38:19</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6460,36 +6208,32 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://www.transparencia.cordeiro.rj.gov.br/licitacaolista.php?id=1077</t>
+          <t>https://teresopolis.rj.gov.br/wp-admin/</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:38:23</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6497,36 +6241,32 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://www.transparencia.cordeiro.rj.gov.br/licitacaolista.php?id=1088</t>
+          <t>https://www.teresopolis.rj.gov.br/boletim-da-defesa-civil-de-teresopolis-01-11-2023-17h45/</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:38:27</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6534,36 +6274,32 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://www.transparencia.cordeiro.rj.gov.br/licitacaolista.php?id=1056</t>
+          <t>https://www.teresopolis.rj.gov.br/transparencia/sobre-o-site/politica-de-acessibilidade/</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:38:31</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6571,36 +6307,32 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://transparencia.cordeiro.rj.gov.br/lrf.php</t>
+          <t>https://www.teresopolis.rj.gov.br/montanhasdeteresopolis/</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:38:35</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6608,36 +6340,32 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/virada-de-ano-em-cordeiro/</t>
+          <t>https://teresopolis.rj.gov.br/datatere/</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:38:41</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6645,36 +6373,32 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://transparencia.cordeiro.rj.gov.br/licitacao.php</t>
+          <t>https://cac.teresopolis.rj.gov.br/login</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:38:45</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6682,36 +6406,32 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://www.transparencia.cordeiro.rj.gov.br/licitacaolista.php?id=1084</t>
+          <t>https://teresopolis.rj.gov.br/multimidia/</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:38:51</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6719,36 +6439,32 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://transparencia.cordeiro.rj.gov.br/publicacoes.php?grupo=&amp;cat=30&amp;Comp=&amp;sec=&amp;Exerc=&amp;Num=&amp;ta=3&amp;Descricao=&amp;dtini=&amp;dtfim=</t>
+          <t>https://atos.teresopolis.rj.gov.br/</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:38:54</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6756,36 +6472,32 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://transparencia.cordeiro.rj.gov.br/unidadesaude.php</t>
+          <t>https://www.teresopolis.rj.gov.br/lgpd/</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:38:59</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6793,36 +6505,32 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/servicos</t>
+          <t>https://teresopolis.rj.gov.br/cafe-popular-2/</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:39:02</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6830,36 +6538,32 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://www.transparencia.cordeiro.rj.gov.br/licitacaolista.php?id=1087</t>
+          <t>https://www.teresopolis.rj.gov.br/feira-virtual-do-produtor/</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:39:08</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6867,36 +6571,32 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/sala-do-empreendedor</t>
+          <t>https://www.teresopolis.rj.gov.br/estrutura/defesa-civil/</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:39:12</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6904,36 +6604,32 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://transparencia.cordeiro.rj.gov.br/conselhos.php</t>
+          <t>https://www.teresopolis.rj.gov.br/aplicativos/</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:39:17</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6941,36 +6637,32 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://www.transparencia.cordeiro.rj.gov.br/guiadomunicipio.php</t>
+          <t>https://www.teresopolis.rj.gov.br/itbi/</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:39:21</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -6978,36 +6670,32 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://www.transparencia.cordeiro.rj.gov.br/licitacaolista.php?id=1076</t>
+          <t>https://www.teresopolis.rj.gov.br/datatere/</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:39:24</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -7015,36 +6703,32 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.cordeiro.rj.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://cordeiro.rj.gov.br/secretaria-de-agricultura-realiza-acoes-de-manutencao-e-melhoria-nas-estradas-vicinais-e-areas-estrategicas-do-municipio/</t>
+          <t>https://www.teresopolis.rj.gov.br/teretec/</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:08</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>2025-01-23 17:39:28</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
@@ -7052,3004 +6736,502 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br/blog</t>
+          <t>https://www.teresopolis.rj.gov.br/novopromaj/</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:14</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:40:01</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/endere%C3%A7os-municipais</t>
+          <t>https://www.teresopolis.rj.gov.br/portal-do-trabalhador/</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:14</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:40:10</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-062-2025-fiscal-de-contratos-semsa</t>
+          <t>https://dados.teresopolis.rj.gov.br/</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:14</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:40:15</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/licita%C3%A7%C3%B5es</t>
+          <t>https://www.teresopolis.rj.gov.br/boletim-da-defesa-civil-de-teresopolis-das-7h-do-dia-04-as-7h-do-dia-05-11/</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:14</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:40:20</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br/post/20-de-janeiro-dia-do-farmac%C3%AAutico</t>
+          <t>https://atos.teresopolis.rj.gov.br/editor/painel</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:14</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:40:26</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/lei-n441-2023-cria-o-novo-c%C3%B3digo-tribut%C3%A1rio-municipal-e-d%C3%A1-outras-providencias</t>
+          <t>https://teresopolis.rj.gov.br/transparencia/diario-oficial/</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:14</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:40:33</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br/secretarias/prefeito</t>
+          <t>https://teresopolis.rj.gov.br/aplicativos/</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:14</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:40:39</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/turismo-e-lazer</t>
+          <t>https://atos.teresopolis.rj.gov.br/acessos/decreto/1rZ4sJoshoKAy5r.html#248956</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:14</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:40:43</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-056-2025-fiscal-de-contratos-semsa</t>
+          <t>https://licitacao.teresopolis.rj.gov.br/</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:14</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:40:47</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-051-2025-fiscal-de-contratos-semsa</t>
+          <t>https://www.teresopolis.rj.gov.br/regularizacao-do-borboletario-inea-realiza-vistoria-tecnica-no-local/</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:14</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:40:54</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/prefeitura-tv</t>
+          <t>http://educacao.teresopolis.rj.gov.br/</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:14</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:40:59</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br/post/tem-10-minutinhos-a-hora-de-prevenir-contra-o-contra-o-aedes-aegypti-%C3%A9-agora</t>
+          <t>https://www.teresopolis.rj.gov.br/boletim-da-defesa-civil-de-teresopolis-3-01-11-2023-8h30</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:14</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:41:04</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br/concursos-e-processos</t>
+          <t>https://teresopolis.rj.gov.br/estrutura/governo-e-coordenacao/assessoria-de-comunicacao/</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:14</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:41:10</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br/licitacoes</t>
+          <t>https://www.teresopolis.rj.gov.br/teresopolis-tera-associacao-de-guias-de-turismo/</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:14</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:41:17</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
+          <t>https://www.teresopolis.rj.gov.br</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-061-2025-fiscal-de-contratos-semsa</t>
+          <t>https://atos.teresopolis.rj.gov.br/acessos/consolida/leiorgnica/8HN2k5XcdHVXh4h.html</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2025-01-23 16:23:14</t>
+          <t>2025-01-25 19:08:06</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:41:23</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/fale-conosco</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:41:27</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/telefones-%C3%BAteis</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:41:31</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-063-2025-fiscal-de-contratos-semsa</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:41:35</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/lei-n-821-2022-Plano-de-cargos-carreiras-e-sal%C3%A1rios-dos-Servidores</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:41:40</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-052-2025-fiscal-de-contratos-semsa</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:41:46</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/publicacoes</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:41:51</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/munic%C3%ADpio</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:42:01</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/san%C3%A7%C3%B5es-e-penalidades</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:42:07</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/plano-de-conting%C3%AAncia-coronav%C3%ADrus-covid-19</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:42:12</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/legislacao</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:42:18</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-050-2025-fiscal-de-contratos-semsa</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:42:24</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/transparencia</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:42:30</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/como-chegar</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:42:34</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:42:39</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/orcamento</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:42:46</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/blog/categories/administra%C3%A7%C3%A3o-e-finan%C3%A7as</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:42:52</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-057-2025-fiscal-de-contratos-semsa</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:42:59</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/fiscal-de-contratos</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:43:04</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/agenda-do-prefeito</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:43:10</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/file-share</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:43:16</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/carnaval</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:43:21</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/post/prefeitura-de-acrel%C3%A2ndia-apoia-os-pequenos-produtores-rurais</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:43:26</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-060-2025-fiscal-de-contratos-semsa</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:43:32</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/despesas-com-pessoal</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:43:38</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/secretarias/vice-prefeito</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:43:45</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/aux%C3%ADlio-cultural</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:43:50</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/plano-municipal-de-educa%C3%A7%C3%A3o</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:43:54</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/c%C3%B3digo-de-postura</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:44:00</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/licita%C3%A7%C3%B5es-transmitidas</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:44:06</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/blog/categories/datas-comemorativas</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:44:11</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/feriados</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:44:17</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-049-2025-fiscal-de-contratos-semsa</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:44:23</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/jogos-escolares</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:44:28</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/carta-de-servicos</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:44:33</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/lei-org%C3%A2nica-n%C2%BA-001-1993-de-27-setembro-1993</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:44:40</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/sic---servi%C3%A7o-de-informa%C3%A7%C3%A3o-ao-cidad%C3%A3o</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:44:46</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-053-2025-fiscal-de-contratos-semsa</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:44:52</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/dados-abertos</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:44:58</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/calend%C3%A1rio-de-pagamentos</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:45:03</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/plano-municipal-de-sa%C3%BAde</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:45:08</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/ouvidoria</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:45:14</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/podcast</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:45:20</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/secretarias</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:45:24</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/contabilidade</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:45:29</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/legisla%C3%A7%C3%B5es-anteriores</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:45:33</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/planos</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:45:38</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/sala-do-empreendedor</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:45:43</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/conselhos-municipais</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:45:49</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/agente-de-contrata%C3%A7%C3%A3o-de-licita%C3%A7%C3%A3o</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:45:54</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>https://webmail-seguro.com.br/acrelandia.ac.gov.br/</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:45:59</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/publicacoes?Modalidade=Cota%25C3%25A7%25C3%25A3o%2520de%2520Pre%25C3%25A7o</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:46:05</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/ex-prefeitos</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:46:14</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-054-2025-fiscal-de-contratos-semsa</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:46:19</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/decreto-n-203-2023-comit%C3%AA-de-coordena%C3%A7%C3%A3o-e-do-plano-de-saneamento-b%C3%A1sico</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:46:25</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-055-2025-fiscal-de-contratos-semsa</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:46:31</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/radar</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:46:38</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-058-2025-fiscal-de-contratos-semsa</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:46:43</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/post/reuni%C3%A3o-no-gabinete-prefeito-olavinho-boiadeiro-dialoga-sobre-destina%C3%A7%C3%A3o-de-emenda-parlamentar-e-no</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:46:50</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/blog/categories/licita%C3%A7%C3%B5es</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:46:57</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/blog/categories/agricultura-e-meio-ambiente</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:47:02</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/portal-do-servidor</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:47:11</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-064-2025-fiscal-de-contratos-semsa</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:47:19</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/paginas/links</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:47:25</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/plano-municipal-de-assist%C3%AAncia-social</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:47:31</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/product-page/portaria-n-059-2025-fiscal-de-contratos-semsa</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:47:36</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>https://www.acrelandia.ac.gov.br/pol%C3%ADtica-de-privacidade</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:23:14</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>SUCESSO</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>2025-01-23 16:47:42</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>Acrelândia</t>
+          <t>Teresópolis</t>
         </is>
       </c>
     </row>
